--- a/Cleaned_Retail_Operational_Data.xlsx
+++ b/Cleaned_Retail_Operational_Data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1432,11 +1432,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD017</t>
+          <t>ORD016</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1445,26 +1445,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Ramesh</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1478,30 +1478,30 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>30.6</v>
+        <v>56.58</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD018</t>
+          <t>ORD017</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45365</v>
+        <v>45355</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1510,17 +1510,17 @@
         </is>
       </c>
       <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="F18" t="n">
-        <v>12</v>
-      </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sita</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>94.2</v>
+        <v>30.6</v>
       </c>
       <c r="M18" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="N18" t="n">
         <v>12</v>
@@ -1554,11 +1554,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD019</t>
+          <t>ORD018</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1571,17 +1571,17 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ramesh</t>
+          <t>Sita</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1600,54 +1600,54 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>48.12</v>
+        <v>94.2</v>
       </c>
       <c r="M19" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="N19" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="O19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD020</t>
+          <t>ORD019</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45365</v>
+        <v>45361</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sita</t>
+          <t>Ramesh</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1661,26 +1661,26 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>58.27</v>
+        <v>48.12</v>
       </c>
       <c r="M20" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="N20" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD021</t>
+          <t>ORD020</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45358</v>
+        <v>45365</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1689,21 +1689,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
         <v>12</v>
       </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ramesh</t>
+          <t>Sita</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>68.69</v>
+        <v>58.27</v>
       </c>
       <c r="M21" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -1737,11 +1737,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD022</t>
+          <t>ORD021</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45365</v>
+        <v>45358</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1750,18 +1750,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13</v>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Ramesh</t>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1779,17 +1779,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>24.82</v>
+        <v>68.69</v>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="N22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -1798,34 +1798,34 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD023</t>
+          <t>ORD022</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45358</v>
+        <v>45365</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Ramesh</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1840,49 +1840,49 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>29.59</v>
+        <v>24.82</v>
       </c>
       <c r="M23" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD024</t>
+          <t>ORD023</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45361</v>
+        <v>45358</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Incorrect</t>
+          <t>Accurate</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1905,13 +1905,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>15.12</v>
+        <v>29.59</v>
       </c>
       <c r="M24" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -1920,11 +1920,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD025</t>
+          <t>ORD024</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45353</v>
+        <v>45361</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1933,46 +1933,46 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nina</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Incorrect</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="M25" t="n">
+        <v>75</v>
+      </c>
+      <c r="N25" t="n">
         <v>7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Ramesh</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Accurate</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>63.51</v>
-      </c>
-      <c r="M25" t="n">
-        <v>89</v>
-      </c>
-      <c r="N25" t="n">
-        <v>14</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -1981,7 +1981,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD026</t>
+          <t>ORD025</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -1989,26 +1989,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Ramesh</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2027,30 +2027,30 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>38.28</v>
+        <v>63.51</v>
       </c>
       <c r="M26" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="N26" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD027</t>
+          <t>ORD026</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45358</v>
+        <v>45353</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2059,17 +2059,17 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aarav</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2088,49 +2088,49 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>19</v>
+        <v>38.28</v>
       </c>
       <c r="M27" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD028</t>
+          <t>ORD027</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Aarav</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2149,45 +2149,45 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>73.31999999999999</v>
+        <v>19</v>
       </c>
       <c r="M28" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD029</t>
+          <t>ORD028</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45364</v>
+        <v>45355</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2210,13 +2210,13 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>23.99</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -2225,11 +2225,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD030</t>
+          <t>ORD029</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2242,17 +2242,17 @@
         </is>
       </c>
       <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
         <v>3</v>
       </c>
-      <c r="F30" t="n">
-        <v>11</v>
-      </c>
-      <c r="G30" t="n">
-        <v>8</v>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Incorrect</t>
+          <t>Accurate</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>18.31</v>
+        <v>23.99</v>
       </c>
       <c r="M30" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2286,34 +2286,34 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD031</t>
+          <t>ORD030</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45365</v>
+        <v>45361</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Accurate</t>
+          <t>Incorrect</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>59.65</v>
+        <v>18.31</v>
       </c>
       <c r="M31" t="n">
         <v>64</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2347,15 +2347,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD032</t>
+          <t>ORD031</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45360</v>
+        <v>45365</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2367,14 +2367,14 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2393,30 +2393,30 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>48.68</v>
+        <v>59.65</v>
       </c>
       <c r="M32" t="n">
+        <v>64</v>
+      </c>
+      <c r="N32" t="n">
         <v>15</v>
       </c>
-      <c r="N32" t="n">
-        <v>31</v>
-      </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD033</t>
+          <t>ORD032</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45356</v>
+        <v>45360</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2425,17 +2425,17 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2454,30 +2454,30 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>88.72</v>
+        <v>48.68</v>
       </c>
       <c r="M33" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="O33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD034</t>
+          <t>ORD033</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45363</v>
+        <v>45356</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2486,17 +2486,17 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Ramesh</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2515,26 +2515,26 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>93.77</v>
+        <v>88.72</v>
       </c>
       <c r="M34" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N34" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD035</t>
+          <t>ORD034</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45365</v>
+        <v>45363</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2553,7 +2553,7 @@
         <v>30</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2576,13 +2576,13 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>83.48999999999999</v>
+        <v>93.77</v>
       </c>
       <c r="M35" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="N35" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2591,39 +2591,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD036</t>
+          <t>ORD035</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Ramesh</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2637,26 +2637,26 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>79.59999999999999</v>
+        <v>83.48999999999999</v>
       </c>
       <c r="M36" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="O36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD037</t>
+          <t>ORD036</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45362</v>
+        <v>45357</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2665,21 +2665,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="F37" t="n">
-        <v>15</v>
-      </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aarav</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Incorrect</t>
+          <t>Accurate</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>96.63</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -2713,15 +2713,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD038</t>
+          <t>ORD037</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45352</v>
+        <v>45362</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2730,17 +2730,17 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Ramesh</t>
+          <t>Aarav</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Accurate</t>
+          <t>Incorrect</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2759,22 +2759,22 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>61.89</v>
+        <v>96.63</v>
       </c>
       <c r="M38" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N38" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD039</t>
+          <t>ORD038</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -2782,26 +2782,26 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Ramesh</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Incorrect</t>
+          <t>Accurate</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2820,13 +2820,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>27.73</v>
+        <v>61.89</v>
       </c>
       <c r="M39" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N39" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -2835,11 +2835,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD040</t>
+          <t>ORD039</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45353</v>
+        <v>45352</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2848,31 +2848,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aarav</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Accurate</t>
+          <t>Incorrect</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2881,13 +2881,13 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>46.76</v>
+        <v>27.73</v>
       </c>
       <c r="M40" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N40" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2896,11 +2896,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD041</t>
+          <t>ORD040</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45363</v>
+        <v>45353</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2913,22 +2913,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Ramesh</t>
+          <t>Aarav</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2942,26 +2942,26 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>25.66</v>
+        <v>46.76</v>
       </c>
       <c r="M41" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD042</t>
+          <t>ORD041</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45356</v>
+        <v>45363</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2974,17 +2974,17 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sita</t>
+          <t>Ramesh</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>39</v>
+        <v>25.66</v>
       </c>
       <c r="M42" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="N42" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3018,15 +3018,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD043</t>
+          <t>ORD042</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45359</v>
+        <v>45356</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3035,17 +3035,17 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aarav</t>
+          <t>Sita</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3064,45 +3064,45 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>18.4</v>
+        <v>39</v>
       </c>
       <c r="M43" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N43" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD044</t>
+          <t>ORD043</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45362</v>
+        <v>45359</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Incorrect</t>
+          <t>Accurate</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3125,49 +3125,49 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>79.16</v>
+        <v>18.4</v>
       </c>
       <c r="M44" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="O44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD045</t>
+          <t>ORD044</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Aarav</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3177,58 +3177,58 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Accurate</t>
+          <t>Incorrect</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>87.44</v>
+        <v>79.16</v>
       </c>
       <c r="M45" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N45" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD046</t>
+          <t>ORD045</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45364</v>
+        <v>45358</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Walk-in</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3247,13 +3247,13 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>20.92</v>
+        <v>87.44</v>
       </c>
       <c r="M46" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -3262,7 +3262,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD047</t>
+          <t>ORD046</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -3275,14 +3275,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3304,17 +3304,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>83.34999999999999</v>
+        <v>20.92</v>
       </c>
       <c r="M47" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N47" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -3323,11 +3323,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD048</t>
+          <t>ORD047</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45358</v>
+        <v>45364</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3336,26 +3336,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Grocery</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sita</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3369,54 +3369,54 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>79.98999999999999</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N48" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD049</t>
+          <t>ORD048</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45362</v>
+        <v>45358</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Walk-in</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Grocery</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Sita</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3430,13 +3430,13 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>22.45</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="N49" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -3445,11 +3445,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD050</t>
+          <t>ORD049</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3458,48 +3458,109 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>7</v>
       </c>
       <c r="G50" t="n">
+        <v>9</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Accurate</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="M50" t="n">
+        <v>39</v>
+      </c>
+      <c r="N50" t="n">
+        <v>16</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ORD050</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Walk-in</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Clothing</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="n">
         <v>13</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Ramesh</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Accurate</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Accurate</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
         <v>84.95999999999999</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M51" t="n">
         <v>59</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N51" t="n">
         <v>20</v>
       </c>
-      <c r="O50" t="b">
+      <c r="O51" t="b">
         <v>1</v>
       </c>
     </row>
